--- a/com.scm.procure.automation/src/test/resources/Automation_TD.xlsx
+++ b/com.scm.procure.automation/src/test/resources/Automation_TD.xlsx
@@ -3,14 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\com.scm.procure.automation\src\test\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3221E91-DFB4-4559-86BC-BC042F5C8712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6DE8D28F-3978-4FE3-942C-28F0C09FE773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2784" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="s" sheetId="1" r:id="rId1"/>
@@ -23,6 +18,7 @@
     <sheet name="productDetails" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:N14"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
   <si>
     <t>txtRetailerUname</t>
   </si>
@@ -179,6 +175,9 @@
   </si>
   <si>
     <t>BakeKING</t>
+  </si>
+  <si>
+    <t>Un</t>
   </si>
 </sst>
 </file>
@@ -773,7 +772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774EC352-137C-4A98-BDFB-98D3F65E538C}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -880,10 +879,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4048F91-2FE7-480D-8809-D49AA2648049}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -891,28 +890,34 @@
     <col min="1" max="1" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
       <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
